--- a/Client/DEngine/Excels/PackingParameter/PackingParameter.xlsx
+++ b/Client/DEngine/Excels/PackingParameter/PackingParameter.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>#</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>DEngine</t>
+  </si>
+  <si>
+    <t>Windows64</t>
+  </si>
+  <si>
+    <t>Android</t>
   </si>
 </sst>
 </file>
@@ -1122,15 +1128,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
@@ -1366,9 +1372,29 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
+    <row r="6" ht="20.25" spans="2:5">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" ht="20.25" spans="2:5">
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:C3 D3 E3 F3:XFD3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A3:$XFD3">
       <formula1>$3:$3</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N12"/>
